--- a/Seção 3 - Mais tópicos de edição e formatação/09 - Proteção de planilha.xlsx
+++ b/Seção 3 - Mais tópicos de edição e formatação/09 - Proteção de planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acadcruzeirodosul-my.sharepoint.com/personal/wesley_victor_cs_cruzeirodosul_edu_br/Documents/Excel/Seção 3 - Mais tópicos de edição e formatação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9579EEA5-BF67-4F13-8D08-2C36F90973EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2451E9-D4AF-4662-81E5-B81882C2E09F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9579EEA5-BF67-4F13-8D08-2C36F90973EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF9ABA5-CD2F-4143-A2A4-01DA18FBB68B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Menu" sheetId="4" r:id="rId1"/>
     <sheet name="Cadastro" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cadastro!$C$4:$I$44</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,66 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Bruno Arantes</author>
-  </authors>
-  <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gestor de Frota:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Informe o ano de fabricação do veículo.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gestor de Frota:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Selecione o tipo de combustível usado pelo veículo.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
   <si>
     <r>
       <t>G</t>
@@ -303,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,19 +287,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -765,7 +697,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1200,8 +1151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="466724"/>
-          <a:ext cx="1800000" cy="360000"/>
+          <a:off x="201757" y="461529"/>
+          <a:ext cx="1806927" cy="357402"/>
         </a:xfrm>
         <a:prstGeom prst="snipRoundRect">
           <a:avLst>
@@ -1356,8 +1307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895726" y="466724"/>
-          <a:ext cx="1800000" cy="360000"/>
+          <a:off x="3891396" y="461529"/>
+          <a:ext cx="1801732" cy="357402"/>
         </a:xfrm>
         <a:prstGeom prst="snipRoundRect">
           <a:avLst>
@@ -1415,8 +1366,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>23589</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195039</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>64725</xdr:rowOff>
     </xdr:to>
@@ -1486,14 +1437,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>64725</xdr:rowOff>
     </xdr:to>
@@ -1865,12 +1816,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="15" width="13" style="1" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,12 +2272,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:XFD61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2341,7 +2295,7 @@
     <col min="9" max="13" width="13" style="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -2468,7 +2422,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" ref="I6:I44" ca="1" si="0">YEAR(TODAY())-G6</f>
+        <f ca="1">YEAR(TODAY())-G6</f>
         <v>18</v>
       </c>
       <c r="J6" s="33"/>
@@ -2499,7 +2453,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G7</f>
         <v>17</v>
       </c>
       <c r="J7" s="33"/>
@@ -2530,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G8</f>
         <v>17</v>
       </c>
       <c r="J8" s="33"/>
@@ -2561,7 +2515,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G9</f>
         <v>16</v>
       </c>
       <c r="J9" s="33"/>
@@ -2592,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G10</f>
         <v>16</v>
       </c>
       <c r="J10" s="33"/>
@@ -2623,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G11</f>
         <v>16</v>
       </c>
       <c r="J11" s="33"/>
@@ -2654,7 +2608,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G12</f>
         <v>16</v>
       </c>
       <c r="J12" s="33"/>
@@ -2685,7 +2639,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G13</f>
         <v>15</v>
       </c>
       <c r="J13" s="33"/>
@@ -2716,7 +2670,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G14</f>
         <v>15</v>
       </c>
       <c r="J14" s="33"/>
@@ -2747,7 +2701,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G15</f>
         <v>15</v>
       </c>
       <c r="J15" s="33"/>
@@ -2778,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G16</f>
         <v>14</v>
       </c>
       <c r="J16" s="33"/>
@@ -2809,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="I17" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G17</f>
         <v>14</v>
       </c>
       <c r="J17" s="33"/>
@@ -2840,7 +2794,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G18</f>
         <v>14</v>
       </c>
       <c r="J18" s="33"/>
@@ -2871,7 +2825,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G19</f>
         <v>13</v>
       </c>
       <c r="J19" s="33"/>
@@ -2902,7 +2856,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G20</f>
         <v>13</v>
       </c>
       <c r="J20" s="33"/>
@@ -2933,7 +2887,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G21</f>
         <v>13</v>
       </c>
       <c r="J21" s="33"/>
@@ -2964,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G22</f>
         <v>12</v>
       </c>
       <c r="J22" s="33"/>
@@ -2995,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="I23" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G23</f>
         <v>12</v>
       </c>
       <c r="J23" s="33"/>
@@ -3026,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G24</f>
         <v>11</v>
       </c>
       <c r="J24" s="33"/>
@@ -3057,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G25</f>
         <v>11</v>
       </c>
       <c r="J25" s="33"/>
@@ -3088,7 +3042,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G26</f>
         <v>11</v>
       </c>
       <c r="J26" s="33"/>
@@ -3119,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G27</f>
         <v>11</v>
       </c>
       <c r="J27" s="33"/>
@@ -3150,7 +3104,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G28</f>
         <v>11</v>
       </c>
       <c r="J28" s="33"/>
@@ -3181,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G29</f>
         <v>11</v>
       </c>
       <c r="J29" s="33"/>
@@ -3212,7 +3166,7 @@
         <v>17</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G30</f>
         <v>10</v>
       </c>
       <c r="J30" s="33"/>
@@ -3243,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="I31" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G31</f>
         <v>10</v>
       </c>
       <c r="J31" s="33"/>
@@ -3274,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G32</f>
         <v>9</v>
       </c>
       <c r="J32" s="33"/>
@@ -3305,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="I33" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G33</f>
         <v>8</v>
       </c>
       <c r="J33" s="33"/>
@@ -3336,7 +3290,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G34</f>
         <v>8</v>
       </c>
       <c r="J34" s="33"/>
@@ -3367,7 +3321,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G35</f>
         <v>8</v>
       </c>
       <c r="J35" s="33"/>
@@ -3398,7 +3352,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G36</f>
         <v>8</v>
       </c>
       <c r="J36" s="33"/>
@@ -3429,7 +3383,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G37</f>
         <v>7</v>
       </c>
       <c r="J37" s="33"/>
@@ -3460,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G38</f>
         <v>7</v>
       </c>
       <c r="J38" s="33"/>
@@ -3491,7 +3445,7 @@
         <v>13</v>
       </c>
       <c r="I39" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G39</f>
         <v>7</v>
       </c>
       <c r="J39" s="33"/>
@@ -3522,7 +3476,7 @@
         <v>13</v>
       </c>
       <c r="I40" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G40</f>
         <v>7</v>
       </c>
       <c r="J40" s="33"/>
@@ -3553,7 +3507,7 @@
         <v>17</v>
       </c>
       <c r="I41" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G41</f>
         <v>7</v>
       </c>
       <c r="J41" s="33"/>
@@ -3584,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G42</f>
         <v>7</v>
       </c>
       <c r="J42" s="33"/>
@@ -3615,7 +3569,7 @@
         <v>13</v>
       </c>
       <c r="I43" s="32">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G43</f>
         <v>6</v>
       </c>
       <c r="J43" s="33"/>
@@ -3646,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="I44" s="36">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">YEAR(TODAY())-G44</f>
         <v>6</v>
       </c>
       <c r="J44" s="33"/>
@@ -3672,9 +3626,22 @@
       <c r="N45" s="34"/>
       <c r="O45" s="35"/>
     </row>
-    <row r="46" spans="2:15" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:G44">
     <sortCondition ref="G5:G44"/>
   </sortState>
@@ -3692,6 +3659,5 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>